--- a/Stats/Model_Stats_3.xlsx
+++ b/Stats/Model_Stats_3.xlsx
@@ -798,16 +798,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d_Duesseldorf</t>
+          <t>d_Bremen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Duesseldorf</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -821,22 +821,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Duesseldorf-Essen-Dortmund-Hannover-Hamburg</t>
+          <t>Bremen-Hamburg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>e7-e4-e5-e11</t>
+          <t>e2</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>442</v>
+        <v>114.76</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -846,16 +846,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Duesseldorf-Essen-Dortmund-Hannover</t>
+          <t>Bremen-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>e7-e4-e5</t>
+          <t>e3-e11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>283.1</v>
+        <v>280.28</v>
       </c>
     </row>
     <row r="4">
@@ -871,22 +871,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Duesseldorf-Koeln-Frankfurt-Hannover</t>
+          <t>Bremen-Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>e8-e10-e9</t>
+          <t>e2-e11</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>584.7</v>
+        <v>273.66</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -896,16 +896,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Duesseldorf-Essen-Dortmund-Koeln</t>
+          <t>Bremen-Hannover</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>e7-e4-e6</t>
+          <t>e3</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>166.1</v>
+        <v>121.38</v>
       </c>
     </row>
     <row r="6">
@@ -921,16 +921,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Duesseldorf-Koeln</t>
+          <t>Bremen-Hannover-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>e8</t>
+          <t>e3-e5-e6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>39.6</v>
+        <v>427.58</v>
       </c>
     </row>
     <row r="7">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>141150</v>
+        <v>14.115</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1105,16 +1105,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>d_Berlin</t>
+          <t>d_Frankfurt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1128,22 +1128,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Berlin-Hamburg</t>
+          <t>Frankfurt-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>e0</t>
+          <t>e9-e11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>306.33</v>
+        <v>513.4</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1153,16 +1153,16 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Berlin-Hannover-Hamburg</t>
+          <t>Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>e1-e11</t>
+          <t>e9</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>453.8</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="15">
@@ -1178,22 +1178,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Berlin-Hamburg-Hannover</t>
+          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>e0-e11</t>
+          <t>e10-e6-e5</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>465.23</v>
+        <v>496.8</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Berlin-Hannover</t>
+          <t>Frankfurt-Hannover-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>e1</t>
+          <t>e9-e5-e6</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>294.9</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="17">
@@ -1228,16 +1228,16 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Berlin-Hannover-Dortmund-Koeln</t>
+          <t>Frankfurt-Koeln</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>e1-e5-e6</t>
+          <t>e10</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>601.1</v>
+        <v>190.6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,16 +1246,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>d_Bremen</t>
+          <t>d_Duesseldorf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1269,22 +1269,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg</t>
+          <t>Duesseldorf-Essen-Dortmund-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>e2</t>
+          <t>e7-e4-e5-e11</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>114.76</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1294,16 +1294,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Hamburg</t>
+          <t>Duesseldorf-Essen-Dortmund-Hannover</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>e3-e11</t>
+          <t>e7-e4-e5</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>280.28</v>
+        <v>283.1</v>
       </c>
     </row>
     <row r="20">
@@ -1319,22 +1319,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bremen-Hamburg-Hannover</t>
+          <t>Duesseldorf-Koeln-Frankfurt-Hannover</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>e2-e11</t>
+          <t>e8-e10-e9</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>273.66</v>
+        <v>584.7</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Koeln</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1344,16 +1344,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bremen-Hannover</t>
+          <t>Duesseldorf-Essen-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>e3</t>
+          <t>e7-e4-e6</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>121.38</v>
+        <v>166.1</v>
       </c>
     </row>
     <row r="22">
@@ -1369,16 +1369,16 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bremen-Hannover-Dortmund-Koeln</t>
+          <t>Duesseldorf-Koeln</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>e3-e5-e6</t>
+          <t>e8</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>427.58</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="23">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>d_Frankfurt</t>
+          <t>d_Berlin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Hamburg</t>
+          <t>Berlin-Hamburg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>e9-e11</t>
+          <t>e0</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>513.4</v>
+        <v>306.33</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1576,16 +1576,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover</t>
+          <t>Berlin-Hannover-Hamburg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>e9</t>
+          <t>e1-e11</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>354.5</v>
+        <v>453.8</v>
       </c>
     </row>
     <row r="30">
@@ -1601,22 +1601,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln-Dortmund-Hannover</t>
+          <t>Berlin-Hamburg-Hannover</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>e10-e6-e5</t>
+          <t>e0-e11</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>496.8</v>
+        <v>465.23</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="inlineStr">
         <is>
-          <t>Koeln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1626,16 +1626,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Frankfurt-Hannover-Dortmund-Koeln</t>
+          <t>Berlin-Hannover</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>e9-e5-e6</t>
+          <t>e1</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>660.7</v>
+        <v>294.9</v>
       </c>
     </row>
     <row r="32">
@@ -1651,16 +1651,16 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Frankfurt-Koeln</t>
+          <t>Berlin-Hannover-Dortmund-Koeln</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>e10</t>
+          <t>e1-e5-e6</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>190.6</v>
+        <v>601.1</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mu_d_Duesseldorf_p2</t>
+          <t>mu_d_Bremen_p1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mu_d_Duesseldorf_p5</t>
+          <t>mu_d_Bremen_p4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p1</t>
+          <t>mu_d_Frankfurt_p2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mu_d_Berlin_p4</t>
+          <t>mu_d_Frankfurt_p5</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p1</t>
+          <t>mu_d_Duesseldorf_p2</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mu_d_Bremen_p4</t>
+          <t>mu_d_Duesseldorf_p5</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p2</t>
+          <t>mu_d_Berlin_p1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mu_d_Frankfurt_p5</t>
+          <t>mu_d_Berlin_p4</t>
         </is>
       </c>
       <c r="C14" t="n">
